--- a/irm_final_evaluation/codebook.xlsx
+++ b/irm_final_evaluation/codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myagh\fc-performeter\irm_final_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3D1E7D-609B-4B5B-86AD-FBCD161C9E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED5BF6F-7F00-4700-915B-5D1753ED8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A815EF1-E797-4900-B675-83DD241DD288}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="302">
   <si>
     <t>q_index</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>deviceid</t>
-  </si>
-  <si>
-    <t>Missing value</t>
   </si>
   <si>
     <t>Is this a real interview, or are you just practicing?</t>
@@ -356,18 +353,9 @@
     <t>concept1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nowhere/tent in a park </t>
-  </si>
-  <si>
     <t>In a camp</t>
   </si>
   <si>
-    <t xml:space="preserve">With family, friends or other acquaintances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In another house than before the earthquake </t>
-  </si>
-  <si>
     <t>In the same house as before earthquake</t>
   </si>
   <si>
@@ -948,6 +936,15 @@
   </si>
   <si>
     <t>_index</t>
+  </si>
+  <si>
+    <t>With family, friends or other acquaintances</t>
+  </si>
+  <si>
+    <t>In another house than before the earthquake</t>
+  </si>
+  <si>
+    <t>Nowhere/tent in a park</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148F1E3C-688D-4908-8A07-024E3424870C}">
   <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61:I61"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,3368 +1754,3164 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="Q8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" s="5"/>
       <c r="M10" s="5"/>
       <c r="P10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="T12" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="R15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="G18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="R22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="O23" s="5"/>
       <c r="R23" s="3"/>
       <c r="S23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="R39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="R41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="R42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T42" s="3"/>
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T44" s="3"/>
     </row>
     <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T45" s="3"/>
     </row>
     <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T46" s="3"/>
     </row>
     <row r="47" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T47" s="3"/>
     </row>
     <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T49" s="3"/>
     </row>
     <row r="50" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T51" s="3"/>
     </row>
     <row r="52" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T52" s="3"/>
     </row>
     <row r="53" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T53" s="3"/>
     </row>
     <row r="54" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="J54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T54" s="3"/>
     </row>
     <row r="55" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T55" s="3"/>
     </row>
     <row r="56" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
       </c>
       <c r="S56" s="3"/>
-      <c r="T56" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T57" s="3"/>
     </row>
     <row r="58" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T58" s="3"/>
     </row>
     <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="R60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T60" s="3"/>
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="R61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T61" s="3"/>
     </row>
     <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="J62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="R62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T62" s="3"/>
     </row>
     <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="R63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T63" s="3"/>
     </row>
     <row r="64" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T64" s="3"/>
     </row>
     <row r="65" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T65" s="3"/>
     </row>
     <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="J66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="R66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T66" s="3"/>
     </row>
     <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="J67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="R67" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T67" s="3"/>
     </row>
     <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T68" s="3"/>
     </row>
     <row r="69" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
       </c>
       <c r="S69" s="3"/>
-      <c r="T69" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T69" s="3"/>
     </row>
     <row r="70" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T70" s="3"/>
     </row>
     <row r="71" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T71" s="3"/>
     </row>
     <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T72" s="3"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T73" s="3"/>
     </row>
     <row r="74" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T74" s="3"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T75" s="3"/>
     </row>
     <row r="76" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="R76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T76" s="3"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S77" s="3"/>
-      <c r="T77" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T77" s="3"/>
     </row>
     <row r="78" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T78" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S79" s="3"/>
-      <c r="T79" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T79" s="3"/>
     </row>
     <row r="80" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S80" s="3"/>
-      <c r="T80" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T80" s="3"/>
     </row>
     <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="O81" s="3"/>
       <c r="Q81" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T81" s="3"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S82" s="3"/>
-      <c r="T82" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T82" s="3"/>
     </row>
     <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T84" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T84" s="3"/>
     </row>
     <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T85" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T85" s="3"/>
     </row>
     <row r="86" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
-      <c r="T86" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T86" s="3"/>
     </row>
     <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T87" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T87" s="3"/>
     </row>
     <row r="88" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
       </c>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
-      <c r="T88" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
-      <c r="T89" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T90" s="3"/>
     </row>
     <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R91" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T92" s="3"/>
     </row>
     <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R93" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T93" s="3"/>
     </row>
     <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
-      <c r="T94" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T94" s="3"/>
     </row>
     <row r="95" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R95" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T95" s="3"/>
     </row>
     <row r="96" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
-      <c r="T96" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T96" s="3"/>
     </row>
     <row r="97" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K97" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R97" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T97" s="3"/>
     </row>
     <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C98" s="3">
         <v>0</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
-      <c r="T98" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T98" s="3"/>
     </row>
     <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
       </c>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
-      <c r="T99" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T99" s="3"/>
     </row>
     <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R100" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T100" s="3"/>
     </row>
     <row r="101" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
-      <c r="T101" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T101" s="3"/>
     </row>
     <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R102" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T102" s="3"/>
     </row>
     <row r="103" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C103" s="3">
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T103" s="3"/>
     </row>
     <row r="104" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K104" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R104" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T104" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T104" s="3"/>
     </row>
     <row r="105" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="R105" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T105" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="T105" s="3"/>
     </row>
     <row r="106" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C106" s="3">
         <v>0</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="S106" s="3"/>
-      <c r="T106" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T106" s="3"/>
     </row>
     <row r="107" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C107" s="3">
         <v>0</v>
       </c>
       <c r="S107" s="3"/>
-      <c r="T107" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="T107" s="3"/>
     </row>
     <row r="108" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T108" s="3"/>
     </row>
@@ -5127,7 +4920,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
@@ -5139,7 +4932,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C110" s="3">
         <v>0</v>
@@ -5151,7 +4944,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C111" s="3">
         <v>0</v>
@@ -5163,7 +4956,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
@@ -5175,7 +4968,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C113" s="3">
         <v>0</v>
@@ -5187,7 +4980,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -5199,7 +4992,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C115" s="3">
         <v>0</v>
@@ -5211,7 +5004,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
@@ -5223,7 +5016,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C117" s="3">
         <v>0</v>
@@ -5235,7 +5028,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C118" s="3">
         <v>0</v>
@@ -5247,7 +5040,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
@@ -5259,7 +5052,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
@@ -5271,7 +5064,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C121" s="3">
         <v>0</v>
@@ -5283,7 +5076,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
@@ -5295,7 +5088,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
